--- a/Data/EC/NIT-9017251958.xlsx
+++ b/Data/EC/NIT-9017251958.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CC3370-58AB-44CA-B432-02CDF388610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEC1765-018C-45EB-92A0-9BE576A27DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B210A95-0F55-4804-8386-D9C931FDB478}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E58F6B40-EDE7-4497-B838-BD2DA1417647}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,136 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1049826606</t>
+  </si>
+  <si>
+    <t>CARLOS ELIECER JIMENEZ MANJARREZ</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1049936356</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER GARCIA CARABALLO</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>73560132</t>
   </si>
   <si>
     <t>JAROL LUIS ALVAREZ CARDONA</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>73169928</t>
+  </si>
+  <si>
+    <t>BONEY BARRIOS LEON</t>
+  </si>
+  <si>
+    <t>1047470809</t>
+  </si>
+  <si>
+    <t>IVAN JAVIER BARCASNEGRAS MORENO</t>
+  </si>
+  <si>
+    <t>79682134</t>
+  </si>
+  <si>
+    <t>ERSON SANCHEZ RUIZ</t>
+  </si>
+  <si>
+    <t>1001978155</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE PAUTT ALVAREZ</t>
+  </si>
+  <si>
+    <t>92448343</t>
+  </si>
+  <si>
+    <t>TILSON OSORIO RICARDO</t>
+  </si>
+  <si>
+    <t>1237440930</t>
+  </si>
+  <si>
+    <t>NESTOR DANIEL MACIAS MONTIEL</t>
+  </si>
+  <si>
+    <t>1051891386</t>
+  </si>
+  <si>
+    <t>EMIRO SALCEDO GAVIRIA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1047408740</t>
+  </si>
+  <si>
+    <t>JADER JOSE MUÑOZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>1002187705</t>
+  </si>
+  <si>
+    <t>JEFERSON PEREZ NUÑEZ</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>1044932103</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL BARRAZA URDANETA</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>1049936356</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER GARCIA CARABALLO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>73169928</t>
-  </si>
-  <si>
-    <t>BONEY BARRIOS LEON</t>
-  </si>
-  <si>
     <t>1047379502</t>
   </si>
   <si>
     <t>BLADIMIR ORTEGA VALENZUELA</t>
   </si>
   <si>
-    <t>1047408740</t>
-  </si>
-  <si>
-    <t>JADER JOSE MUÑOZ MUÑOZ</t>
-  </si>
-  <si>
-    <t>1049829044</t>
-  </si>
-  <si>
-    <t>FREDIS GRAU MANJARRES</t>
-  </si>
-  <si>
-    <t>1047470809</t>
-  </si>
-  <si>
-    <t>IVAN JAVIER BARCASNEGRAS MORENO</t>
-  </si>
-  <si>
-    <t>79682134</t>
-  </si>
-  <si>
-    <t>ERSON SANCHEZ RUIZ</t>
-  </si>
-  <si>
-    <t>1002246867</t>
-  </si>
-  <si>
-    <t>JOEL ANDRES MORENO MORALES</t>
-  </si>
-  <si>
-    <t>1001978155</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE PAUTT ALVAREZ</t>
-  </si>
-  <si>
-    <t>1049826606</t>
-  </si>
-  <si>
-    <t>CARLOS ELIECER JIMENEZ MANJARREZ</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1002187705</t>
-  </si>
-  <si>
-    <t>JEFERSON PEREZ NUÑEZ</t>
-  </si>
-  <si>
-    <t>92448343</t>
-  </si>
-  <si>
-    <t>TILSON OSORIO RICARDO</t>
-  </si>
-  <si>
     <t>1002317170</t>
   </si>
   <si>
     <t>NOVALIS ANTONIO AYOLA CUELLO</t>
   </si>
   <si>
-    <t>1237440930</t>
-  </si>
-  <si>
-    <t>NESTOR DANIEL MACIAS MONTIEL</t>
-  </si>
-  <si>
-    <t>1044932103</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL BARRAZA URDANETA</t>
-  </si>
-  <si>
-    <t>1051891386</t>
-  </si>
-  <si>
-    <t>EMIRO SALCEDO GAVIRIA</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1002189871</t>
+  </si>
+  <si>
+    <t>YENDER CANTILLO ORTEGA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -293,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522A3A09-D2AD-1DE4-8C5D-E57C05AA86C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D364C9CD-0A19-D681-07F3-B9C450593B70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9699D037-1AA1-46D0-BAC0-8E74690C9B50}">
-  <dimension ref="B2:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B244380E-87AF-478B-94A9-071DEA7D11CA}">
+  <dimension ref="B2:J112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -984,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1029,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1061,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4530765</v>
+        <v>4823465</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1077,17 +1074,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1114,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1137,10 +1134,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>27733</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1163,7 +1160,7 @@
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1203,13 +1200,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1243,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1266,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1289,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1312,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1335,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1358,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1381,19 +1378,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,19 +1401,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1427,19 +1424,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,19 +1447,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1473,19 +1470,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,13 +1493,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1519,19 +1516,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1548,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1565,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1588,13 +1585,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1611,19 +1608,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1634,13 +1631,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>56940</v>
@@ -1657,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,19 +1677,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1726,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1749,19 +1746,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1795,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1818,13 +1815,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1841,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1864,19 +1861,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1887,19 +1884,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G49" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1910,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1933,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
       </c>
       <c r="G51" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1962,13 +1959,13 @@
         <v>32</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1979,19 +1976,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
       </c>
       <c r="G53" s="18">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2002,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="18">
-        <v>1100000</v>
+        <v>1500000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2025,19 +2022,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
       </c>
       <c r="G55" s="18">
-        <v>1100000</v>
+        <v>1300000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2048,13 +2045,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2071,13 +2068,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2094,13 +2091,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2117,19 +2114,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F59" s="18">
-        <v>52000</v>
+        <v>26572</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2140,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2163,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2186,19 +2183,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2209,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F63" s="18">
         <v>52000</v>
       </c>
       <c r="G63" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2232,19 +2229,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F64" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G64" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2255,19 +2252,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2278,19 +2275,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
       </c>
       <c r="G66" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2301,19 +2298,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2324,19 +2321,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
       </c>
       <c r="G68" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2347,16 +2344,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F69" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G69" s="18">
         <v>1300000</v>
@@ -2370,19 +2367,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2393,13 +2390,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2416,13 +2413,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2439,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G73" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2462,13 +2459,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
@@ -2485,13 +2482,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -2508,16 +2505,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F76" s="18">
-        <v>27733</v>
+        <v>52000</v>
       </c>
       <c r="G76" s="18">
         <v>1300000</v>
@@ -2531,16 +2528,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F77" s="18">
-        <v>26572</v>
+        <v>52000</v>
       </c>
       <c r="G77" s="18">
         <v>1300000</v>
@@ -2554,19 +2551,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F78" s="18">
         <v>56940</v>
       </c>
       <c r="G78" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2577,16 +2574,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F79" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
         <v>1300000</v>
@@ -2600,19 +2597,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F80" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G80" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2623,13 +2620,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2646,13 +2643,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D82" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -2669,19 +2666,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F83" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2692,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2715,19 +2712,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D85" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F85" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G85" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2738,13 +2735,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D86" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
@@ -2761,19 +2758,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F87" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2784,13 +2781,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
@@ -2807,19 +2804,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F89" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G89" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2830,13 +2827,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
@@ -2859,13 +2856,13 @@
         <v>48</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G91" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2876,19 +2873,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F92" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G92" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2899,19 +2896,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F93" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G93" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2922,19 +2919,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E94" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F94" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G94" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2945,19 +2942,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G95" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2968,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>52</v>
-      </c>
       <c r="E96" s="16" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -2991,13 +2988,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F97" s="18">
         <v>52000</v>
@@ -3014,19 +3011,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3037,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F99" s="18">
         <v>52000</v>
@@ -3060,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F100" s="18">
         <v>52000</v>
@@ -3079,56 +3076,171 @@
       <c r="J100" s="20"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G101" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G101" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G102" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G103" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G104" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G105" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="26"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="32"/>
+      <c r="H111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="32"/>
+      <c r="H112" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H111:J111"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
